--- a/upload/excel/2506_국제고_발주서_이가에프엔비_업로드용.xlsx
+++ b/upload/excel/2506_국제고_발주서_이가에프엔비_업로드용.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AK16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B15"/>
@@ -551,6 +551,7 @@
     <col width="5.19921875" customWidth="1" style="13" min="7" max="36"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="19.2" customHeight="1" s="13">
       <c r="A2" s="11" t="inlineStr">
         <is>
@@ -756,6 +757,11 @@
       <c r="AK5" s="1" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -826,8 +832,12 @@
       <c r="AH6" s="7" t="n"/>
       <c r="AI6" s="7" t="n"/>
       <c r="AJ6" s="7" t="n"/>
-      <c r="AK6" s="7" t="n">
-        <v>100</v>
+      <c r="AK6" s="7">
+        <f>SUM(G6:AJ6)</f>
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v>11025</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1" s="13">
@@ -893,8 +903,12 @@
       <c r="AH7" s="7" t="n"/>
       <c r="AI7" s="7" t="n"/>
       <c r="AJ7" s="7" t="n"/>
-      <c r="AK7" s="7" t="n">
-        <v>70</v>
+      <c r="AK7" s="7">
+        <f>SUM(G7:AJ7)</f>
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" s="13">
@@ -962,8 +976,12 @@
       <c r="AH8" s="7" t="n"/>
       <c r="AI8" s="7" t="n"/>
       <c r="AJ8" s="7" t="n"/>
-      <c r="AK8" s="7" t="n">
-        <v>35</v>
+      <c r="AK8" s="7">
+        <f>SUM(G8:AJ8)</f>
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" s="13">
@@ -1029,8 +1047,12 @@
       <c r="AH9" s="7" t="n"/>
       <c r="AI9" s="7" t="n"/>
       <c r="AJ9" s="7" t="n"/>
-      <c r="AK9" s="7" t="n">
-        <v>30</v>
+      <c r="AK9" s="7">
+        <f>SUM(G9:AJ9)</f>
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1" s="13">
@@ -1094,8 +1116,12 @@
       <c r="AH10" s="7" t="n"/>
       <c r="AI10" s="7" t="n"/>
       <c r="AJ10" s="7" t="n"/>
-      <c r="AK10" s="7" t="n">
-        <v>85</v>
+      <c r="AK10" s="7">
+        <f>SUM(G10:AJ10)</f>
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v>19000</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" s="13">
@@ -1159,8 +1185,12 @@
       <c r="AH11" s="7" t="n"/>
       <c r="AI11" s="7" t="n"/>
       <c r="AJ11" s="7" t="n"/>
-      <c r="AK11" s="7" t="n">
-        <v>80</v>
+      <c r="AK11" s="7">
+        <f>SUM(G11:AJ11)</f>
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v>16000</v>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1" s="13">
@@ -1226,8 +1256,12 @@
       <c r="AH12" s="7" t="n"/>
       <c r="AI12" s="7" t="n"/>
       <c r="AJ12" s="7" t="n"/>
-      <c r="AK12" s="7" t="n">
-        <v>40</v>
+      <c r="AK12" s="7">
+        <f>SUM(G12:AJ12)</f>
+        <v/>
+      </c>
+      <c r="AL12" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1" s="13">
@@ -1293,8 +1327,12 @@
       <c r="AH13" s="7" t="n"/>
       <c r="AI13" s="7" t="n"/>
       <c r="AJ13" s="7" t="n"/>
-      <c r="AK13" s="7" t="n">
-        <v>140</v>
+      <c r="AK13" s="7">
+        <f>SUM(G13:AJ13)</f>
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1" s="13">
@@ -1358,8 +1396,12 @@
       <c r="AH14" s="7" t="n"/>
       <c r="AI14" s="7" t="n"/>
       <c r="AJ14" s="7" t="n"/>
-      <c r="AK14" s="7" t="n">
-        <v>15</v>
+      <c r="AK14" s="7">
+        <f>SUM(G14:AJ14)</f>
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v>16000</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" s="13">
@@ -1423,8 +1465,12 @@
       <c r="AH15" s="7" t="n"/>
       <c r="AI15" s="7" t="n"/>
       <c r="AJ15" s="7" t="n"/>
-      <c r="AK15" s="7" t="n">
-        <v>90</v>
+      <c r="AK15" s="7">
+        <f>SUM(G15:AJ15)</f>
+        <v/>
+      </c>
+      <c r="AL15" t="n">
+        <v>24500</v>
       </c>
     </row>
     <row r="16">
@@ -1438,98 +1484,129 @@
           <t>합계</t>
         </is>
       </c>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <v>90</v>
-      </c>
-      <c r="S16" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7" t="n">
-        <v>70</v>
-      </c>
-      <c r="X16" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="7" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE16" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7" t="n">
-        <v>685</v>
+      <c r="G16" s="7">
+        <f>SUM(G6:G15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(H6:H15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="7">
+        <f>SUM(I6:I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="7">
+        <f>SUM(J6:J15)</f>
+        <v/>
+      </c>
+      <c r="K16" s="7">
+        <f>SUM(K6:K15)</f>
+        <v/>
+      </c>
+      <c r="L16" s="7">
+        <f>SUM(L6:L15)</f>
+        <v/>
+      </c>
+      <c r="M16" s="7">
+        <f>SUM(M6:M15)</f>
+        <v/>
+      </c>
+      <c r="N16" s="7">
+        <f>SUM(N6:N15)</f>
+        <v/>
+      </c>
+      <c r="O16" s="7">
+        <f>SUM(O6:O15)</f>
+        <v/>
+      </c>
+      <c r="P16" s="7">
+        <f>SUM(P6:P15)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="7">
+        <f>SUM(Q6:Q15)</f>
+        <v/>
+      </c>
+      <c r="R16" s="7">
+        <f>SUM(R6:R15)</f>
+        <v/>
+      </c>
+      <c r="S16" s="7">
+        <f>SUM(S6:S15)</f>
+        <v/>
+      </c>
+      <c r="T16" s="7">
+        <f>SUM(T6:T15)</f>
+        <v/>
+      </c>
+      <c r="U16" s="7">
+        <f>SUM(U6:U15)</f>
+        <v/>
+      </c>
+      <c r="V16" s="7">
+        <f>SUM(V6:V15)</f>
+        <v/>
+      </c>
+      <c r="W16" s="7">
+        <f>SUM(W6:W15)</f>
+        <v/>
+      </c>
+      <c r="X16" s="7">
+        <f>SUM(X6:X15)</f>
+        <v/>
+      </c>
+      <c r="Y16" s="7">
+        <f>SUM(Y6:Y15)</f>
+        <v/>
+      </c>
+      <c r="Z16" s="7">
+        <f>SUM(Z6:Z15)</f>
+        <v/>
+      </c>
+      <c r="AA16" s="7">
+        <f>SUM(AA6:AA15)</f>
+        <v/>
+      </c>
+      <c r="AB16" s="7">
+        <f>SUM(AB6:AB15)</f>
+        <v/>
+      </c>
+      <c r="AC16" s="7">
+        <f>SUM(AC6:AC15)</f>
+        <v/>
+      </c>
+      <c r="AD16" s="7">
+        <f>SUM(AD6:AD15)</f>
+        <v/>
+      </c>
+      <c r="AE16" s="7">
+        <f>SUM(AE6:AE15)</f>
+        <v/>
+      </c>
+      <c r="AF16" s="7">
+        <f>SUM(AF6:AF15)</f>
+        <v/>
+      </c>
+      <c r="AG16" s="7">
+        <f>SUM(AG6:AG15)</f>
+        <v/>
+      </c>
+      <c r="AH16" s="7">
+        <f>SUM(AH6:AH15)</f>
+        <v/>
+      </c>
+      <c r="AI16" s="7">
+        <f>SUM(AI6:AI15)</f>
+        <v/>
+      </c>
+      <c r="AJ16" s="7">
+        <f>SUM(AJ6:AJ15)</f>
+        <v/>
+      </c>
+      <c r="AK16" s="7">
+        <f>SUM(AK6:AK15)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
